--- a/data/income_statement/2digits/size/24_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/24_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>24-Manufacture of basic metals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>24-Manufacture of basic metals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,659 +841,744 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>447013.28949</v>
+        <v>491269.92471</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>763090.04732</v>
+        <v>799690.75899</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>821873.01252</v>
+        <v>866235.6240399999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>378308.40359</v>
+        <v>428581.84416</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>661059.7457999999</v>
+        <v>726311.88163</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>366269.73935</v>
+        <v>434714.28603</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>346981.92527</v>
+        <v>424624.79513</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>472634.33763</v>
+        <v>557062.18247</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>467866.9205</v>
+        <v>554952.9097900001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1418316.50909</v>
+        <v>1584245.47787</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1300170.60985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1584083.36475</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1961296.6</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>426447.7351</v>
+        <v>466810.29401</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>743912.94661</v>
+        <v>777277.4956300001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>795312.50468</v>
+        <v>832453.3145799999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>353456.45344</v>
+        <v>396610.7198</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>629084.2976500001</v>
+        <v>686140.0061400001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>342340.99584</v>
+        <v>402227.7023300001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>319344.11094</v>
+        <v>387068.32857</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>446974.49517</v>
+        <v>523303.46473</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>399454.7230300001</v>
+        <v>476197.20085</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1305767.13919</v>
+        <v>1456807.90891</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1150177.99618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1406921.27961</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1717550.449</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>16557.45326</v>
+        <v>19191.11188</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>15624.9869</v>
+        <v>17126.75438</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>21892.89076</v>
+        <v>25757.12652</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>19267.34956</v>
+        <v>22244.38969</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>26086.01664</v>
+        <v>30287.65198</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>18313.99663</v>
+        <v>23164.4309</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>21427.04269</v>
+        <v>25756.82237</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>21661.59122</v>
+        <v>25850.87716</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>63447.64444</v>
+        <v>67172.07948999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>99148.99983</v>
+        <v>107870.33685</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>123760.21036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>141365.45371</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>217095.77</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>4008.10113</v>
+        <v>5268.51882</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3552.113809999999</v>
+        <v>5286.508980000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>4667.61708</v>
+        <v>8025.18294</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5584.60059</v>
+        <v>9726.73467</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>5889.431509999999</v>
+        <v>9884.22351</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>5614.746880000001</v>
+        <v>9322.1528</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6210.77164</v>
+        <v>11799.64419</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3998.25124</v>
+        <v>7907.84058</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4964.553029999999</v>
+        <v>11583.62945</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13400.37007</v>
+        <v>19567.23211</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>26232.40331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>35796.63143</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>26650.381</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2634.77632</v>
+        <v>4048.49513</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2997.7209</v>
+        <v>3672.41673</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2475.91162</v>
+        <v>3079.10443</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3577.31546</v>
+        <v>3878.95986</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2008.51891</v>
+        <v>2844.17566</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1572.9929</v>
+        <v>1949.25618</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1505.72376</v>
+        <v>3246.91412</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1607.8758</v>
+        <v>2434.09927</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1188.16195</v>
+        <v>3528.44558</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>9367.597189999999</v>
+        <v>10741.50952</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6013.04616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8055.038010000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>32704.419</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2379.76278</v>
+        <v>2983.144659999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2481.51306</v>
+        <v>3131.70989</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2305.75183</v>
+        <v>2802.25245</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3437.92478</v>
+        <v>3723.03658</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1844.44139</v>
+        <v>2271.46126</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1451.40788</v>
+        <v>1782.64896</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1407.75484</v>
+        <v>3055.897730000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1549.49602</v>
+        <v>2351.105</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1080.07867</v>
+        <v>3330.34843</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>8591.732810000001</v>
+        <v>9925.63298</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5409.68992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7259.35672</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>30715.309</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>220.92229</v>
+        <v>576.03464</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>478.13585</v>
+        <v>488.26345</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>140.30639</v>
+        <v>233.49406</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>77.06098</v>
+        <v>84.32368000000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>17.11948</v>
+        <v>373.02663</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>33.87071</v>
+        <v>47.61655</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>74.45744999999999</v>
+        <v>91.29332000000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>43.78682000000001</v>
+        <v>48.86351</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>49.20545000000001</v>
+        <v>113.64843</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>397.7821</v>
+        <v>404.80773</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>465.20129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>558.39703</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1309.092</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>34.09125</v>
+        <v>489.3158299999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>38.07199</v>
+        <v>52.44339000000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>29.8534</v>
+        <v>43.35792</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>62.3297</v>
+        <v>71.5996</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>146.95804</v>
+        <v>199.68777</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>87.71431000000001</v>
+        <v>118.99067</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>23.51147</v>
+        <v>99.72307000000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>14.59296</v>
+        <v>34.13076</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>58.87783</v>
+        <v>84.44871999999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>378.08228</v>
+        <v>411.06881</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>138.15495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>237.28426</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>680.018</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>444378.5131699999</v>
+        <v>487221.42958</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>760092.3264199999</v>
+        <v>796018.3422599999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>819397.1009000001</v>
+        <v>863156.5196099998</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>374731.08813</v>
+        <v>424702.8843</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>659051.2268899999</v>
+        <v>723467.70597</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>364696.74645</v>
+        <v>432765.02985</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>345476.20151</v>
+        <v>421377.88101</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>471026.4618299999</v>
+        <v>554628.0832</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>466678.75855</v>
+        <v>551424.46421</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1408948.9119</v>
+        <v>1573503.96835</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1294157.56369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1576028.32674</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1928592.181</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>402369.06342</v>
+        <v>440069.26687</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>714807.8368099999</v>
+        <v>744634.51375</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>772026.08629</v>
+        <v>807599.66403</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>327309.6915900001</v>
+        <v>366567.72242</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>607481.29057</v>
+        <v>657939.9537599999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>314518.21909</v>
+        <v>368931.4320600001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>296732.0808</v>
+        <v>358624.55778</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>447309.79423</v>
+        <v>513382.30124</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>408042.51912</v>
+        <v>475248.8071099999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1237159.8515</v>
+        <v>1368035.6975</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1133881.90239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1358666.99748</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1675540.626</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>147284.69408</v>
+        <v>167120.66957</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>145076.35232</v>
+        <v>158649.69132</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>159680.54412</v>
+        <v>178790.3575</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>148386.92619</v>
+        <v>171679.41832</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>132697.69147</v>
+        <v>164072.80421</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>145432.47671</v>
+        <v>176077.75185</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>144586.75686</v>
+        <v>182265.62207</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>172767.07663</v>
+        <v>214847.22372</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>209933.68211</v>
+        <v>251859.48811</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>611805.77752</v>
+        <v>680586.60639</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>559558.36298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>691821.8565399999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>657455.128</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>241946.13752</v>
+        <v>256976.95173</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>556483.62425</v>
+        <v>571585.9710999998</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>595039.0379</v>
+        <v>607775.3713999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>161263.60803</v>
+        <v>174707.2785</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>460806.9565800001</v>
+        <v>476092.45759</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>145050.70788</v>
+        <v>162397.82854</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>129154.54016</v>
+        <v>148165.90583</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>252217.62125</v>
+        <v>270290.89199</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>174772.69356</v>
+        <v>192119.46871</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>565142.1731700001</v>
+        <v>611968.2448499999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>495106.6076</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>569406.4598099999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>936778.594</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>11951.36986</v>
+        <v>14072.89918</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>12459.17173</v>
+        <v>13384.88572</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>14575.63087</v>
+        <v>17852.33049</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>15576.96846</v>
+        <v>17918.80177</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>13286.29907</v>
+        <v>16649.29191</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>23286.35809</v>
+        <v>28688.99957</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>21234.59779</v>
+        <v>25145.64201</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>20441.0809</v>
+        <v>25821.78213</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>22285.60568</v>
+        <v>28859.83693</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>57494.099</v>
+        <v>71418.54172999998</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>66146.01088</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>83002.05316</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>76588.87</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1186.86196</v>
+        <v>1898.74639</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>788.6885100000001</v>
+        <v>1013.96561</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2730.8734</v>
+        <v>3181.60464</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2082.18891</v>
+        <v>2262.22383</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>690.34345</v>
+        <v>1125.40005</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>748.67641</v>
+        <v>1766.8521</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1756.18599</v>
+        <v>3047.38787</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1884.01545</v>
+        <v>2422.4034</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1050.53777</v>
+        <v>2410.01336</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2717.80181</v>
+        <v>4062.30453</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>13070.92093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14436.62797</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4718.034</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>42009.44975</v>
+        <v>47152.16271000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>45284.48961</v>
+        <v>51383.82851000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>47371.01461</v>
+        <v>55556.85558</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>47421.39654000001</v>
+        <v>58135.16187999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>51569.93632</v>
+        <v>65527.75221000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>50178.52736</v>
+        <v>63833.59779000001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>48744.12071</v>
+        <v>62753.32322999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>23716.6676</v>
+        <v>41245.78195999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>58636.23943</v>
+        <v>76175.6571</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>171789.0604</v>
+        <v>205468.27085</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>160275.6613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>217361.32926</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>253051.555</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>39906.98401</v>
+        <v>58467.30045</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>36660.54818999999</v>
+        <v>52561.79893</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>38886.84747</v>
+        <v>58040.67816999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>38661.28267</v>
+        <v>55292.40131</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>43652.45648</v>
+        <v>66107.48110999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>44496.83146</v>
+        <v>75639.64175999998</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>45443.86786</v>
+        <v>75748.23065000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>45485.62862999999</v>
+        <v>83331.41502</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>45266.70185</v>
+        <v>82930.97481</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>129032.05957</v>
+        <v>172244.56959</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>126045.03468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>191490.92607</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>192409.982</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>193.15725</v>
+        <v>303.30819</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>199.00374</v>
+        <v>591.98298</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>730.71397</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6.68878</v>
+        <v>90.37127000000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>109.38272</v>
+        <v>110.43272</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>591.1830500000001</v>
+        <v>870.49882</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>692.4948999999999</v>
+        <v>866.95821</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>124.4756</v>
@@ -1601,304 +1587,344 @@
         <v>375.13706</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>522.74287</v>
+        <v>636.36069</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>498.62765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>586.1293799999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1747.24</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5463.51778</v>
+        <v>6479.33312</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4455.857</v>
+        <v>5083.155449999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>4668.00607</v>
+        <v>5933.61517</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5924.633059999999</v>
+        <v>6942.772550000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6446.8626</v>
+        <v>8334.86938</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>5017.78377</v>
+        <v>6798.27394</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4193.007000000001</v>
+        <v>6021.41817</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>5591.08258</v>
+        <v>9493.403129999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3764.8506</v>
+        <v>8490.404309999998</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>13768.16319</v>
+        <v>16969.809</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>21281.36779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26556.78155</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>21942.551</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>34250.30897999999</v>
+        <v>51684.65914</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>32005.68745</v>
+        <v>46886.6605</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>33488.12743</v>
+        <v>51376.34903</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>32729.96083</v>
+        <v>48259.25749</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>37096.21116</v>
+        <v>57662.17900999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>38887.86464</v>
+        <v>67970.86900000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>40558.36596</v>
+        <v>68859.85427</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>39770.07045000001</v>
+        <v>73713.53628999999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>41126.71419</v>
+        <v>74065.43343999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>114741.15351</v>
+        <v>154638.3999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>104265.03924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>164348.01514</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>168720.191</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2102.46574</v>
+        <v>-11315.13774</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>8623.941419999999</v>
+        <v>-1177.97042</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>8484.167140000001</v>
+        <v>-2483.82259</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>8760.113869999999</v>
+        <v>2842.76057</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>7917.47984</v>
+        <v>-579.7289000000002</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5681.695900000001</v>
+        <v>-11806.04397</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3300.25285</v>
+        <v>-12994.90742</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-21768.96103</v>
+        <v>-42085.63306</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>13369.53758</v>
+        <v>-6755.317710000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>42757.00083</v>
+        <v>33223.70125999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>34230.62662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>25870.40319</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>60641.573</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5775.83432</v>
+        <v>58080.81306</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1709.80659</v>
+        <v>57009.11045</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1351.21604</v>
+        <v>65274.65605000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1837.30802</v>
+        <v>61209.01037999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2280.40046</v>
+        <v>60990.6317</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2617.51644</v>
+        <v>114664.12884</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4956.858490000001</v>
+        <v>164012.57558</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>18555.41099</v>
+        <v>201134.77408</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>20565.10781</v>
+        <v>160765.09943</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>63295.71914</v>
+        <v>457695.82724</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>13457.2188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>179824.02345</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>399521.924</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>12.627</v>
+        <v>2297.6365</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>9.47025</v>
+        <v>5424.58554</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>7110.17273</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5</v>
+        <v>3557.70719</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>17.89763</v>
+        <v>47.08352</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>5863.87784</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>32.67488</v>
+        <v>10260.67488</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>17.6778</v>
+        <v>7404.923299999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5.050800000000001</v>
+        <v>10901.37167</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>12.627</v>
+        <v>5781.78793</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>25.254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>43.85169999999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>17.678</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>8035.920609999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>1507.30808</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>1790.96313</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>5803.86724</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>1014.94001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>1525.28734</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>1796.84722</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>1436.31172</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>1794.51521</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>1796.89263</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>292.72278</v>
+        <v>1535.48799</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>174.1764</v>
+        <v>1696.103</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>206.11763</v>
+        <v>3369.68556</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>252.24108</v>
+        <v>5555.27158</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>272.56431</v>
+        <v>2210.18488</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>355.27001</v>
+        <v>5796.474689999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>349.7204300000001</v>
+        <v>18223.94041</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>384.04472</v>
+        <v>6715.04915</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>332.3880799999999</v>
+        <v>9946.022059999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2123.2689</v>
+        <v>19256.56639</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2131.32208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>10484.87115</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8865.561</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>67.1764</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>59.90828</v>
+        <v>607.3036500000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>95.29683</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>389.80958</v>
+        <v>488.8061700000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>359.09467</v>
+        <v>640.3968100000001</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>89.21129000000001</v>
@@ -1907,139 +1933,159 @@
         <v>252.56211</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>96.1147</v>
+        <v>136.66366</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>127.03351</v>
+        <v>272.47041</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>778.0884100000001</v>
+        <v>778.77292</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>99.47264999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>99.95607999999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>15.744</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>31.66783</v>
+        <v>287.26785</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>15.61305</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>0</v>
+        <v>334.06363</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>86.45549</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>111.36772</v>
+        <v>159.53502</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>52.41774</v>
+        <v>146.7223</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0.5221399999999999</v>
+        <v>245.56083</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>75.00000999999999</v>
+        <v>17870.40913</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1e-05</v>
+        <v>18014.70469</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>222.03702</v>
+        <v>18025.89246</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>94.70494000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>187.04869</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>19130.413</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>132.22175</v>
+        <v>146.48884</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>23.15013</v>
+        <v>33.92816000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1.97141</v>
+        <v>7.41296</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>10.88014</v>
+        <v>24.10703</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1.03065</v>
+        <v>44.25248000000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5.92784</v>
+        <v>21.31436</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>15.75228</v>
+        <v>10988.78211</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>19.642</v>
+        <v>39079.51023000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>10.28923</v>
+        <v>2776.59126</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>126.34581</v>
+        <v>195.52563</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>140.33924</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>394.25504</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>647.345</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2991.13589</v>
+        <v>32244.63674</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>631.1972300000001</v>
+        <v>39650.53663999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>637.7802599999999</v>
+        <v>49291.41978</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>322.31189</v>
+        <v>36937.75181</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>503.0408</v>
+        <v>49328.82681000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1002.65546</v>
+        <v>92989.40711000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2638.37167</v>
+        <v>109918.8937</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>15930.65962</v>
+        <v>117858.43366</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>18698.98309</v>
+        <v>105603.91683</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>57007.53391999999</v>
+        <v>392698.02105</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4597.479179999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>151365.18827</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>354752.326</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.22788</v>
@@ -2096,10 +2147,10 @@
         <v>3.3532</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>460.84886</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>0</v>
+        <v>548.8938200000001</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2111,247 +2162,282 @@
         <v>2.55891</v>
       </c>
       <c r="M34" s="48" t="n">
+        <v>519.74861</v>
+      </c>
+      <c r="N34" s="48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2248.05479</v>
+        <v>13465.97025</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>796.2912500000001</v>
+        <v>8073.73233</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>410.04991</v>
+        <v>3275.64143</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>768.88839</v>
+        <v>8753.32242</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1008.00032</v>
+        <v>7538.007809999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1112.0341</v>
+        <v>7770.98505</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1667.25498</v>
+        <v>11776.4205</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2032.27214</v>
+        <v>10633.47323</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1391.36309</v>
+        <v>11455.5073</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3023.25917</v>
+        <v>19159.80932</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6368.646710000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>16729.10391</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16092.841</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4864.332230000001</v>
+        <v>32557.62294</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1270.7599</v>
+        <v>42392.59439</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1728.80551</v>
+        <v>66707.62467999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3491.27544</v>
+        <v>39280.59593</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1398.139</v>
+        <v>80948.21103000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1306.66418</v>
+        <v>101642.60173</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3296.14924</v>
+        <v>153761.76205</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>16255.54034</v>
+        <v>143042.42198</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>18840.66627</v>
+        <v>118461.56392</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>64894.78867</v>
+        <v>430012.39179</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6135.99902</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>175622.64813</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>379446.48</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>298.16907</v>
+        <v>312.48934</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>34.07259000000001</v>
+        <v>51.07828</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>15.6902</v>
+        <v>15.74865</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>20.26982</v>
+        <v>20.86317</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>62.2948</v>
+        <v>63.3293</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>90.41200999999998</v>
+        <v>98.85424999999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>23.51724</v>
+        <v>24.01724</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>15.12274</v>
+        <v>39.01553</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>26.00105</v>
+        <v>29.69948</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>59.85118</v>
+        <v>88.07126000000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>646.70047</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>695.439</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1608.964</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>264.7884</v>
+        <v>265.02443</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>381.76659</v>
+        <v>409.18121</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>586.8248000000001</v>
+        <v>918.4721299999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2434.07523</v>
+        <v>2460.39689</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>36.81911</v>
+        <v>801.59392</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>321.13061</v>
+        <v>333.47636</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>88.28635</v>
+        <v>88.28634999999998</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>0</v>
+        <v>256.11535</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>68.34385</v>
+        <v>2377.25497</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1734.98278</v>
+        <v>1740.05278</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>793.4018800000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1372.37599</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>6654.32</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>19.60593</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>46.92242</v>
+        <v>75.91452</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>7.31612</v>
+        <v>7.99776</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1e-05</v>
+        <v>1733.11803</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>54.9956</v>
+        <v>5048.495599999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0</v>
+        <v>241.51862</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>7985.21889</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0</v>
+        <v>4.75971</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>35.34054</v>
+        <v>61.74498999999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>9.9892</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>17.31342</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>78.354</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3354.39595</v>
+        <v>29718.93564</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>583.8529599999999</v>
+        <v>39428.67967</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>616.5784400000001</v>
+        <v>62412.58186</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>363.84698</v>
+        <v>33432.55607</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>998.49179</v>
+        <v>67737.33245</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>768.42145</v>
+        <v>98023.27237999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3037.37775</v>
+        <v>142693.51808</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>15857.40134</v>
+        <v>139667.02563</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>18601.14977</v>
+        <v>114248.69743</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>59623.05437999999</v>
+        <v>423044.14415</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4149.08175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>163208.78942</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>366748.936</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>12.27483</v>
@@ -2363,13 +2449,13 @@
         <v>9.128489999999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0</v>
+        <v>23.66184</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>16.80865</v>
+        <v>16.84733</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>9.71528</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1e-05</v>
@@ -2405,7 +2496,7 @@
         <v>6.56558</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>19.82675</v>
+        <v>22.37052</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>915.0980400000001</v>
+        <v>2229.29276</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>170.35895</v>
+        <v>2373.95432</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>490.80095</v>
+        <v>3341.22928</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>666.51782</v>
+        <v>1603.43435</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>225.71095</v>
+        <v>7275.089239999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>109.89146</v>
+        <v>2928.63279</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>137.25262</v>
+        <v>2961.00621</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>358.98544</v>
+        <v>3054.57465</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>145.1716</v>
+        <v>1801.15233</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3380.87356</v>
+        <v>5017.69238</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>536.8257199999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10328.7303</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4355.906</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2324.10598</v>
+        <v>12837.6448</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1836.99903</v>
+        <v>8231.193209999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2040.58023</v>
+        <v>8284.04614</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2667.67618</v>
+        <v>14768.89126</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1861.19156</v>
+        <v>13604.9541</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1726.44636</v>
+        <v>17816.20195</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2079.53005</v>
+        <v>24977.34578</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2133.56048</v>
+        <v>22662.80597</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2227.22741</v>
+        <v>27950.96273</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11819.39689</v>
+        <v>49323.90216</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8480.52389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>38170.892</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>45676.238</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2260.6781</v>
+        <v>10189.20474</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1756.53072</v>
+        <v>6927.508900000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2010.49499</v>
+        <v>7767.315279999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2564.13763</v>
+        <v>9905.254999999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1767.24239</v>
+        <v>13166.12318</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1680.95697</v>
+        <v>16851.45212</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1952.51974</v>
+        <v>24765.93049</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2029.89875</v>
+        <v>22448.06743</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2191.31582</v>
+        <v>27784.20821</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>11612.14994</v>
+        <v>46343.01653</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8346.11945</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>37704.86606</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>42225.451</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>63.42788</v>
+        <v>2648.440059999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>80.46831</v>
+        <v>1303.68431</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>30.08524</v>
+        <v>516.73086</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>103.53855</v>
+        <v>4863.63626</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>93.94917</v>
+        <v>438.83092</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>45.48939</v>
+        <v>964.74983</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>127.01031</v>
+        <v>211.41529</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>103.66173</v>
+        <v>214.73854</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>35.91159</v>
+        <v>166.75452</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>207.24695</v>
+        <v>2980.88563</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>134.40444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>466.02594</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3450.787</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>689.8618500000001</v>
+        <v>1370.40758</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>7225.98908</v>
+        <v>5207.352430000002</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6065.997439999999</v>
+        <v>-12200.83736</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4438.47027</v>
+        <v>10002.28376</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6938.54974</v>
+        <v>-34142.26233</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5266.1018</v>
+        <v>-16600.71881</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2881.43205</v>
+        <v>-27721.43967</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-21602.65086</v>
+        <v>-6656.086929999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>12866.75171</v>
+        <v>7597.255069999998</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>29338.53441</v>
+        <v>11583.23455</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>33071.32251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-8099.11349</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>35040.779</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1666.00988</v>
+        <v>7874.750379999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1535.40294</v>
+        <v>19525.12076</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3349.1672</v>
+        <v>15125.15887</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1430.50348</v>
+        <v>25842.33252</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2409.72113</v>
+        <v>8123.89246</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2576.20841</v>
+        <v>53000.94141</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3156.2554</v>
+        <v>8033.83063</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5251.85927</v>
+        <v>157683.08937</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1993.77188</v>
+        <v>21493.09807</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>12205.78559</v>
+        <v>26371.27874</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>10588.49089</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>34879.93375</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>26533.344</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>6.60961</v>
+        <v>20.29163</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1.8495</v>
+        <v>6.222989999999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0.9204</v>
+        <v>1.9404</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>27.00406</v>
+        <v>9681.499109999999</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>0.495</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>228.03829</v>
+        <v>243.98413</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>18.66496</v>
+        <v>46.06671</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>37.29013</v>
+        <v>37.3115</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0.00527</v>
+        <v>2057.83508</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>0.01617</v>
+        <v>40.09891</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>20.6969</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>56.14615</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3.518</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1659.40027</v>
+        <v>7854.45875</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1533.55344</v>
+        <v>19518.89777</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3348.2468</v>
+        <v>15123.21847</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1403.49942</v>
+        <v>16160.83341</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2409.22613</v>
+        <v>8123.39746</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2348.17012</v>
+        <v>52756.95728</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3137.59044</v>
+        <v>7987.76392</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5214.569140000001</v>
+        <v>157645.77787</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1993.76661</v>
+        <v>19435.26299</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>12205.76942</v>
+        <v>26331.17983</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>10567.79399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>34823.7876</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>26529.826</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2782.223</v>
+        <v>8374.427810000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2845.37858</v>
+        <v>25428.71876</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>11443.82882</v>
+        <v>390892.8594</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3622.60887</v>
+        <v>26026.26203</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5043.47947</v>
+        <v>13256.21092</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>7017.180429999999</v>
+        <v>21900.61813</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3459.75366</v>
+        <v>12312.25302</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>9123.458939999999</v>
+        <v>17985.98072</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2956.60358</v>
+        <v>13802.05342</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>31114.22655</v>
+        <v>68431.14017</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>13719.67045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>23714.44207</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>19127.294</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>175.99282</v>
+        <v>983.48466</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>277.7393500000001</v>
+        <v>1905.02655</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>209.5216</v>
+        <v>3523.2176</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>270.0896100000001</v>
+        <v>895.31389</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>289.97523</v>
+        <v>912.1668000000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>132.98996</v>
+        <v>1062.69095</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>452.56113</v>
+        <v>1281.43128</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>184.41089</v>
+        <v>1401.55272</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>171.44718</v>
+        <v>1292.80835</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>11840.06745</v>
+        <v>14660.93469</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>282.96949</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2939.37767</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7073.604</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>98.61291</v>
+        <v>279.353</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>66.55366000000001</v>
+        <v>10548.14473</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>55.31121</v>
+        <v>367980.3239</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>669.98473</v>
+        <v>2020.04717</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>317.79936</v>
+        <v>874.5945499999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>53.41905000000001</v>
+        <v>5591.483359999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>42.73010000000001</v>
+        <v>112.71882</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>45.90205</v>
+        <v>2318.59412</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>103.47944</v>
+        <v>3883.31583</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>152.37751</v>
+        <v>727.7252099999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>372.39496</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>819.9861699999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>252.839</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2507.61727</v>
+        <v>7111.59015</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2501.08557</v>
+        <v>12975.54748</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>11178.99601</v>
+        <v>19389.3179</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2682.53453</v>
+        <v>23110.90097</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4435.70488</v>
+        <v>11469.44957</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>6830.77142</v>
+        <v>15246.44382</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2964.46243</v>
+        <v>10918.10292</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>8893.146000000001</v>
+        <v>14265.83388</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2681.67696</v>
+        <v>8625.929239999998</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>19121.78159</v>
+        <v>53042.48026999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>13064.306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>19955.07823</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>11800.851</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-426.3512700000002</v>
+        <v>870.7301500000003</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5916.01344</v>
+        <v>-696.2455699999985</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2028.66418</v>
+        <v>-387968.53789</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2246.36488</v>
+        <v>9818.35425</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4304.7914</v>
+        <v>-39274.58079000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>825.12978</v>
+        <v>14499.60447</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2577.93379</v>
+        <v>-31999.86206</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-25474.25053</v>
+        <v>133041.02172</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>11903.92001</v>
+        <v>15288.29972</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>10430.09345</v>
+        <v>-30476.62688</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>29940.14295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3066.378190000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>42446.829</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1862.08835</v>
+        <v>2494.17314</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2369.28858</v>
+        <v>4429.7575</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2174.00415</v>
+        <v>4525.78259</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2321.20594</v>
+        <v>3096.66349</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2041.22354</v>
+        <v>3430.1625</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2351.9295</v>
+        <v>3921.635319999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2257.74122</v>
+        <v>5441.663979999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2366.80334</v>
+        <v>3932.14728</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2479.83961</v>
+        <v>4446.61289</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10174.42087</v>
+        <v>14508.72579</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9135.613019999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15159.07246</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>19185.623</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2288.43962</v>
+        <v>-1623.44299</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3546.72486</v>
+        <v>-5126.003069999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-4202.66833</v>
+        <v>-392494.32048</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-74.84106000000006</v>
+        <v>6721.690760000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2263.56786</v>
+        <v>-42704.74329</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1526.79972</v>
+        <v>10577.96915</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>320.1925699999998</v>
+        <v>-37441.52604</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-27841.05387</v>
+        <v>129108.87444</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>9424.080400000001</v>
+        <v>10841.68683</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>255.672580000001</v>
+        <v>-44985.35267</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>20804.52993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-12092.69427</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>23261.206</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1144</v>
+        <v>1302</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1091</v>
+        <v>1251</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1045</v>
+        <v>1206</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1005</v>
+        <v>1200</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1079</v>
+        <v>1314</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1009</v>
+        <v>1272</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>965</v>
+        <v>1235</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>930</v>
+        <v>1260</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>931</v>
+        <v>1236</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1191</v>
+        <v>1627</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1744</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>